--- a/tableaux/data/dataPays.xlsx
+++ b/tableaux/data/dataPays.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elsadelmas/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents pro/Freelance/2021_07_Carte_privatisation_sante/Data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elsadelmas/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents pro/Freelance/2021_07_Carte_privatisation_sante/svelte/tableaux/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3F71A3-7872-BD4E-8846-7E593AE0B50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FDFC28-8C35-1A48-A2A5-B30AD36E6F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12500" yWindow="500" windowWidth="15320" windowHeight="12720" xr2:uid="{23587CBC-5129-8442-A4EA-A5A3D2AD78E8}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>not available</t>
   </si>
   <si>
-    <t>62 (wallonia) - 12 (flanders) - 62 (brussels)</t>
-  </si>
-  <si>
     <t>&lt; 1</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>EL</t>
   </si>
   <si>
-    <t>62 (Wallonia) - 12 (Flanders) - 62 (Brussels)</t>
-  </si>
-  <si>
     <t>name_fr</t>
   </si>
   <si>
@@ -829,6 +823,12 @@
   </si>
   <si>
     <t>Regno Unito</t>
+  </si>
+  <si>
+    <t>48 (Wallonia) - 17 (Flanders) - 63 (Brussels)</t>
+  </si>
+  <si>
+    <t>48 (wallonia) - 17 (flanders) - 63 (brussels)</t>
   </si>
 </sst>
 </file>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A73A729-194A-9249-835F-59CA4F1099C1}">
   <dimension ref="A1:BK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,7 +1219,7 @@
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1410,300 +1410,300 @@
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>78</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>78</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>79</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>79</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>80</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>80</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>81</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>82</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>83</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>83</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z2" t="s">
         <v>84</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
         <v>84</v>
       </c>
-      <c r="X2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>86</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>87</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>87</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>88</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>89</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>89</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>90</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>90</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>91</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>91</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>92</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>92</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>93</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>93</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>94</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>94</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>95</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>95</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>96</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>96</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>97</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>97</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>98</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>98</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>99</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>99</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>100</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>100</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>101</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BK2" t="s">
         <v>101</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
         <v>107</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
         <v>108</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>108</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>109</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>110</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>110</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>111</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>111</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>112</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>112</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>113</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>113</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>114</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>114</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>115</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>116</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>116</v>
       </c>
-      <c r="T3" t="s">
+      <c r="X3" t="s">
         <v>117</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>117</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Z3" t="s">
         <v>118</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AA3" t="s">
         <v>118</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AB3" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AC3" t="s">
         <v>119</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AD3" t="s">
         <v>120</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AE3" t="s">
         <v>120</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>121</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AH3" t="s">
         <v>122</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AI3" t="s">
         <v>122</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>124</v>
       </c>
       <c r="AJ3" t="s">
         <v>18</v>
@@ -1712,22 +1712,22 @@
         <v>18</v>
       </c>
       <c r="AL3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" t="s">
         <v>125</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AQ3" t="s">
         <v>125</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>127</v>
       </c>
       <c r="AR3" t="s">
         <v>23</v>
@@ -1736,165 +1736,165 @@
         <v>23</v>
       </c>
       <c r="AT3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB3" t="s">
         <v>128</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="BC3" t="s">
         <v>128</v>
       </c>
-      <c r="AV3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AZ3" t="s">
+      <c r="BD3" t="s">
         <v>129</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BE3" t="s">
         <v>129</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BF3" t="s">
         <v>130</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BG3" t="s">
         <v>130</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BH3" t="s">
         <v>131</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BI3" t="s">
         <v>131</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BJ3" t="s">
         <v>132</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BK3" t="s">
         <v>132</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
         <v>135</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>135</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>136</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>136</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>137</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>137</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>138</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>138</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>139</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>139</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>140</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>140</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>141</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
         <v>141</v>
       </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V4" t="s">
         <v>142</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="W4" t="s">
         <v>142</v>
       </c>
-      <c r="R4" t="s">
+      <c r="X4" t="s">
         <v>143</v>
       </c>
-      <c r="S4" t="s">
+      <c r="Y4" t="s">
         <v>143</v>
       </c>
-      <c r="T4" t="s">
-        <v>117</v>
-      </c>
-      <c r="U4" t="s">
-        <v>117</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="Z4" t="s">
         <v>144</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AA4" t="s">
         <v>144</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AB4" t="s">
         <v>145</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AC4" t="s">
         <v>145</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AD4" t="s">
         <v>146</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
         <v>146</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>147</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>147</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AH4" t="s">
         <v>148</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AI4" t="s">
         <v>148</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>150</v>
       </c>
       <c r="AJ4" t="s">
         <v>18</v>
@@ -1903,22 +1903,22 @@
         <v>18</v>
       </c>
       <c r="AL4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP4" t="s">
         <v>151</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AQ4" t="s">
         <v>151</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>153</v>
       </c>
       <c r="AR4" t="s">
         <v>23</v>
@@ -1927,189 +1927,189 @@
         <v>23</v>
       </c>
       <c r="AT4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB4" t="s">
         <v>154</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="BC4" t="s">
         <v>154</v>
       </c>
-      <c r="AV4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ4" t="s">
+      <c r="BD4" t="s">
         <v>155</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BE4" t="s">
         <v>155</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BF4" t="s">
         <v>156</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BG4" t="s">
         <v>156</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BH4" t="s">
         <v>157</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BI4" t="s">
         <v>157</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BJ4" t="s">
         <v>158</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BK4" t="s">
         <v>158</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>159</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>159</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" t="s">
         <v>184</v>
       </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" t="s">
         <v>185</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
         <v>185</v>
       </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>186</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>186</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>187</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>187</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" t="s">
         <v>188</v>
       </c>
-      <c r="M5" t="s">
+      <c r="S5" t="s">
         <v>188</v>
       </c>
-      <c r="N5" t="s">
+      <c r="T5" t="s">
         <v>189</v>
       </c>
-      <c r="O5" t="s">
+      <c r="U5" t="s">
         <v>189</v>
       </c>
-      <c r="P5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>115</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="V5" t="s">
         <v>190</v>
       </c>
-      <c r="S5" t="s">
+      <c r="W5" t="s">
         <v>190</v>
       </c>
-      <c r="T5" t="s">
+      <c r="X5" t="s">
         <v>191</v>
       </c>
-      <c r="U5" t="s">
+      <c r="Y5" t="s">
         <v>191</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Z5" t="s">
         <v>192</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AA5" t="s">
         <v>192</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AB5" t="s">
         <v>193</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AC5" t="s">
         <v>193</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AD5" t="s">
         <v>194</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AE5" t="s">
         <v>194</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>195</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>195</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AH5" t="s">
         <v>196</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AI5" t="s">
         <v>196</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AJ5" t="s">
         <v>197</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AK5" t="s">
         <v>197</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN5" t="s">
         <v>198</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AO5" t="s">
         <v>198</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AP5" t="s">
         <v>199</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AQ5" t="s">
         <v>199</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>201</v>
       </c>
       <c r="AR5" t="s">
         <v>23</v>
@@ -2118,380 +2118,380 @@
         <v>23</v>
       </c>
       <c r="AT5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AU5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AV5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AW5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AX5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AY5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AZ5" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD5" t="s">
         <v>210</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BE5" t="s">
         <v>210</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BF5" t="s">
         <v>211</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BG5" t="s">
         <v>211</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BH5" t="s">
         <v>212</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BI5" t="s">
         <v>212</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BJ5" t="s">
         <v>213</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BK5" t="s">
         <v>213</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>214</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>214</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>215</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
         <v>108</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>108</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J6" t="s">
         <v>250</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>250</v>
       </c>
-      <c r="F6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>251</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>251</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>252</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>252</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" t="s">
+        <v>188</v>
+      </c>
+      <c r="S6" t="s">
+        <v>188</v>
+      </c>
+      <c r="T6" t="s">
+        <v>189</v>
+      </c>
+      <c r="U6" t="s">
+        <v>189</v>
+      </c>
+      <c r="V6" t="s">
         <v>253</v>
       </c>
-      <c r="M6" t="s">
+      <c r="W6" t="s">
         <v>253</v>
       </c>
-      <c r="N6" t="s">
+      <c r="X6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z6" t="s">
         <v>254</v>
       </c>
-      <c r="O6" t="s">
+      <c r="AA6" t="s">
         <v>254</v>
       </c>
-      <c r="P6" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>115</v>
-      </c>
-      <c r="R6" t="s">
-        <v>190</v>
-      </c>
-      <c r="S6" t="s">
-        <v>190</v>
-      </c>
-      <c r="T6" t="s">
-        <v>191</v>
-      </c>
-      <c r="U6" t="s">
-        <v>191</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF6" t="s">
         <v>255</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AG6" t="s">
         <v>255</v>
       </c>
-      <c r="X6" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="AH6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>256</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AK6" t="s">
         <v>256</v>
       </c>
-      <c r="AB6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AL6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN6" t="s">
         <v>257</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AO6" t="s">
         <v>257</v>
       </c>
-      <c r="AH6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="AP6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR6" t="s">
         <v>258</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AS6" t="s">
         <v>258</v>
       </c>
-      <c r="AL6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN6" t="s">
+      <c r="AT6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV6" t="s">
         <v>259</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AW6" t="s">
         <v>259</v>
       </c>
-      <c r="AP6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR6" t="s">
+      <c r="AX6" t="s">
         <v>260</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AY6" t="s">
         <v>260</v>
       </c>
-      <c r="AT6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV6" t="s">
+      <c r="AZ6" t="s">
         <v>261</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="BA6" t="s">
         <v>261</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="BB6" t="s">
         <v>262</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="BC6" t="s">
         <v>262</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BD6" t="s">
         <v>263</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BE6" t="s">
         <v>263</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BF6" t="s">
         <v>264</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BG6" t="s">
         <v>264</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BH6" t="s">
         <v>265</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BI6" t="s">
         <v>265</v>
       </c>
-      <c r="BF6" t="s">
-        <v>266</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>266</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>267</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>267</v>
-      </c>
       <c r="BJ6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BK6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" t="s">
         <v>220</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" t="s">
         <v>221</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>221</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>222</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>222</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>223</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>223</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>224</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>224</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>225</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>225</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>226</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" t="s">
         <v>226</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
         <v>227</v>
       </c>
-      <c r="O7" t="s">
+      <c r="S7" t="s">
         <v>227</v>
       </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>228</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="U7" t="s">
         <v>228</v>
       </c>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
         <v>229</v>
       </c>
-      <c r="S7" t="s">
+      <c r="W7" t="s">
         <v>229</v>
       </c>
-      <c r="T7" t="s">
+      <c r="X7" t="s">
         <v>230</v>
       </c>
-      <c r="U7" t="s">
+      <c r="Y7" t="s">
         <v>230</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Z7" t="s">
         <v>231</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AA7" t="s">
         <v>231</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AB7" t="s">
         <v>232</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AC7" t="s">
         <v>232</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AE7" t="s">
         <v>233</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>234</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>234</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AH7" t="s">
         <v>235</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>235</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AJ7" t="s">
         <v>236</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AK7" t="s">
         <v>236</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN7" t="s">
         <v>237</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AO7" t="s">
         <v>237</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AP7" t="s">
         <v>238</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AQ7" t="s">
         <v>238</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>240</v>
       </c>
       <c r="AR7" t="s">
         <v>23</v>
@@ -2500,58 +2500,58 @@
         <v>23</v>
       </c>
       <c r="AT7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX7" t="s">
         <v>241</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AY7" t="s">
         <v>241</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AZ7" t="s">
         <v>242</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="BA7" t="s">
         <v>242</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="BB7" t="s">
         <v>243</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="BC7" t="s">
         <v>243</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BD7" t="s">
         <v>244</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BE7" t="s">
         <v>244</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BF7" t="s">
         <v>245</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BG7" t="s">
         <v>245</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BH7" t="s">
         <v>246</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BI7" t="s">
         <v>246</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BJ7" t="s">
         <v>247</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BK7" t="s">
         <v>247</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>248</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>248</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
@@ -2747,7 +2747,7 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>8.6</v>
@@ -2935,21 +2935,21 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
         <v>36</v>
       </c>
       <c r="V10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="s">
         <v>68</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>76349</v>
@@ -3134,18 +3134,18 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
         <v>36</v>
       </c>
       <c r="AR12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -3154,7 +3154,7 @@
         <v>13.9</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>266</v>
       </c>
       <c r="G13">
         <v>23.7</v>
@@ -3286,233 +3286,233 @@
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="J14" t="s">
         <v>36</v>
       </c>
       <c r="AA14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="H15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="M15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="O15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="3" t="s">
+      <c r="AX15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R15" s="3" t="s">
+      <c r="BE15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP15" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA15" s="3" t="s">
+      <c r="BF15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BB15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG15" s="3" t="s">
+      <c r="BH15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BH15" s="3" t="s">
+      <c r="BI15" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="BI15" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="s">
         <v>163</v>
       </c>
-      <c r="H16" t="s">
+      <c r="N16" t="s">
         <v>164</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" t="s">
+        <v>166</v>
+      </c>
+      <c r="R16" t="s">
         <v>164</v>
       </c>
-      <c r="M16" t="s">
+      <c r="T16" t="s">
+        <v>167</v>
+      </c>
+      <c r="U16" t="s">
+        <v>168</v>
+      </c>
+      <c r="V16" t="s">
+        <v>169</v>
+      </c>
+      <c r="W16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>178</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC16" t="s">
         <v>165</v>
       </c>
-      <c r="N16" t="s">
-        <v>166</v>
-      </c>
-      <c r="O16" t="s">
-        <v>167</v>
-      </c>
-      <c r="P16" t="s">
-        <v>168</v>
-      </c>
-      <c r="R16" t="s">
-        <v>166</v>
-      </c>
-      <c r="T16" t="s">
-        <v>169</v>
-      </c>
-      <c r="U16" t="s">
-        <v>170</v>
-      </c>
-      <c r="V16" t="s">
-        <v>171</v>
-      </c>
-      <c r="W16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>217</v>
-      </c>
-      <c r="AQ16" t="s">
+      <c r="BE16" t="s">
         <v>165</v>
       </c>
-      <c r="AR16" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ16" t="s">
+      <c r="BF16" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG16" t="s">
         <v>179</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BH16" t="s">
         <v>180</v>
       </c>
-      <c r="BB16" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>167</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>167</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>161</v>
-      </c>
-      <c r="BG16" t="s">
+      <c r="BI16" t="s">
         <v>181</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>182</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
